--- a/electron_js/June19-Mailing.xlsx
+++ b/electron_js/June19-Mailing.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet14" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="28 June'19" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="28June'19" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="26 June'19" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="24 June'19" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="22 June'19" sheetId="5" state="visible" r:id="rId6"/>
@@ -3666,7 +3666,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,10 +3805,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.2959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.1632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5033,10 +5033,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.4387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7436,10 +7436,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8912,11 +8912,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.3469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.6734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11180,11 +11180,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.7142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12345,11 +12345,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13597,16 +13597,16 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.2908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.8367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="57.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14937,41 +14937,41 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.eduonix.com/react-for-absolute-beginners?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/50/01"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/50/01.jpg"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.eduonix.com/projects-in-bootstrap-4-learn-by-building-apps?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C3" r:id="rId4" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/50/02"/>
+    <hyperlink ref="C3" r:id="rId4" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/50/02.jpg"/>
     <hyperlink ref="B4" r:id="rId5" display="https://www.eduonix.com/artificial-intelligence-amp-machine-learning?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C4" r:id="rId6" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/50/03"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/50/03.jpg"/>
     <hyperlink ref="B5" r:id="rId7" display="https://www.eduonix.com/courses/Software-Development/practical-nginx-the-zero-to-hero-guide?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C5" r:id="rId8" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/50/04"/>
+    <hyperlink ref="C5" r:id="rId8" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/50/04.jpg"/>
     <hyperlink ref="B7" r:id="rId9" display="https://www.eduonix.com/nodejs-from-ground-up-for-beginners?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C7" r:id="rId10" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/250/01"/>
+    <hyperlink ref="C7" r:id="rId10" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/250/01.jpg"/>
     <hyperlink ref="B8" r:id="rId11" display="https://www.eduonix.com/sass-the-complete-sass-course-css-preprocessor?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C8" r:id="rId12" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/250/02"/>
+    <hyperlink ref="C8" r:id="rId12" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/250/02.jpg"/>
     <hyperlink ref="B9" r:id="rId13" display="https://www.eduonix.com/salesforce-certified-admin-practical-test-guide?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C9" r:id="rId14" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/250/03"/>
+    <hyperlink ref="C9" r:id="rId14" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/250/03.jpg"/>
     <hyperlink ref="B10" r:id="rId15" display="https://www.eduonix.com/courses/Graphic-Design/beginner-to-professional-the-complete-photoshop-guide?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C10" r:id="rId16" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/250/04"/>
+    <hyperlink ref="C10" r:id="rId16" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/250/04.jpg"/>
     <hyperlink ref="B12" r:id="rId17" display="https://www.eduonix.com/javascript-fundamentals-2018-es6-for-beginners?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C12" r:id="rId18" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/01"/>
+    <hyperlink ref="C12" r:id="rId18" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/01.jpg"/>
     <hyperlink ref="B13" r:id="rId19" display="https://www.eduonix.com/angular-2-and-nodejs-the-mean-stack-guide?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C13" r:id="rId20" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/02"/>
+    <hyperlink ref="C13" r:id="rId20" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/02.jpg"/>
     <hyperlink ref="B14" r:id="rId21" display="https://www.eduonix.com/tensorflow-for-practitioners-with-python?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C14" r:id="rId22" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/03"/>
+    <hyperlink ref="C14" r:id="rId22" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/03.jpg"/>
     <hyperlink ref="B15" r:id="rId23" display="https://www.eduonix.com/project-in-devops-learn-real-world-devops?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C15" r:id="rId24" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/04"/>
+    <hyperlink ref="C15" r:id="rId24" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/04.jpg"/>
     <hyperlink ref="B16" r:id="rId25" display="https://www.eduonix.com/front-end-web-development-bootcamp-build-a-twitter-clone?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C16" r:id="rId26" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/05"/>
+    <hyperlink ref="C16" r:id="rId26" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/05.jpg"/>
     <hyperlink ref="B17" r:id="rId27" display="https://www.eduonix.com/flutter-dart-the-complete-flutter-app-development-course?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C17" r:id="rId28" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/06"/>
+    <hyperlink ref="C17" r:id="rId28" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/06.jpg"/>
     <hyperlink ref="B18" r:id="rId29" display="https://www.eduonix.com/learn-machine-learning-by-building-projects?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C18" r:id="rId30" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/07"/>
+    <hyperlink ref="C18" r:id="rId30" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/07.jpg"/>
     <hyperlink ref="B19" r:id="rId31" display="https://www.eduonix.com/angular-4-the-complete-guide?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C19" r:id="rId32" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/08"/>
+    <hyperlink ref="C19" r:id="rId32" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/BOGO/08.jpg"/>
     <hyperlink ref="B21" r:id="rId33" display="https://www.eduonix.com/ai-machine-learning-edegree?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C21" r:id="rId34" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/E-Degrees/01"/>
+    <hyperlink ref="C21" r:id="rId34" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/E-Degrees/01.jpg"/>
     <hyperlink ref="B22" r:id="rId35" display="https://www.eduonix.com/mern-stack-developer-e-degree?utm_source=emailer&amp;utm_medium=email5&amp;utm_campaign=friendship-bogo-sale-ind-2019"/>
-    <hyperlink ref="C22" r:id="rId36" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/E-Degrees/02"/>
+    <hyperlink ref="C22" r:id="rId36" display="https://www.eduonix.com/mailing_img/mailing_5aug19_ind/E-Degrees/02.jpg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14996,11 +14996,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16631,10 +16631,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.7908163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17472,13 +17472,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.4234693877551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18511,12 +18511,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19500,11 +19500,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.4897959183674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20707,10 +20707,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22499,11 +22499,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.7908163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/electron_js/June19-Mailing.xlsx
+++ b/electron_js/June19-Mailing.xlsx
@@ -3665,6 +3665,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3802,9 +3805,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.484693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5029,9 +5033,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.8979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.3571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7431,9 +7436,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8906,10 +8912,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.1326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11173,10 +11180,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12337,10 +12345,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13588,15 +13597,16 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.2959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.6632653061225"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.984693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14986,10 +14996,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16620,9 +16631,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.5"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17460,12 +17472,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1530612244898"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18498,11 +18511,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19486,10 +19500,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20692,9 +20707,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.9183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.2397959183674"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22483,10 +22499,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
